--- a/Data/Output/Yearly-Report-2021-RO345879.xlsx
+++ b/Data/Output/Yearly-Report-2021-RO345879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>664829</x:t>
   </x:si>
@@ -185,6 +185,177 @@
   </x:si>
   <x:si>
     <x:t>282320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>869999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18578.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53747.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2766.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16598.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>445630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18445.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>610883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5926.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35557.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20095.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>734832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51199.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47644.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>960780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45532.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>949707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55434.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>605990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49718.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298309</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -771,6 +942,259 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
